--- a/aplicaciones/www/estaticos/datos/descarga/ya9-2-detencion-no-privativa.xlsx
+++ b/aplicaciones/www/estaticos/datos/descarga/ya9-2-detencion-no-privativa.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_60C6943C5D4F252541229FB1E68D7E0932B39695" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C82032D-682B-4F01-937A-2172746EAFFB}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_60C6943C5D4F252541229FB1E68D7E0932B39695" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{737DE8D5-B4F8-4CBB-BF1F-B2CCABB4AC78}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="datos" sheetId="1" r:id="rId1"/>
+    <sheet name="metadatos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>coddepto</t>
   </si>
@@ -47,18 +48,62 @@
   <si>
     <t>tasa</t>
   </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>Fecha_de_extracción</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>codmpio</t>
+  </si>
+  <si>
+    <t>Código del municipio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. de adolescentes que ingresan al SRPA con una medida no privativa de la libertad
+No. de adolescentes que ingresan al SRPA con una medida privativa de la libertad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Instituto Colombiano de Bienestar Familiar (ICBF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No. total de adolescentes que han ingresado al sistema SRPA en el mismo periodo y territorio. x 100</t>
+  </si>
+  <si>
+    <t>Elaboración Propia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,8 +126,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
@@ -5092,4 +5139,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49B4236-F555-4BC6-9025-95AA1472C948}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>